--- a/Sentiment_Analysis/DIY/evaluation_demo.xlsx
+++ b/Sentiment_Analysis/DIY/evaluation_demo.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AIUB\Semester-11\Thesis\PsudoCode\Sentiment_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AIUB\Semester-11\Thesis\PsudoCode\Sentiment_Analysis\DIY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B31F582-BEA0-4B56-BFD5-F23F21C7E66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57A5514-75D5-485C-9D50-78A827CC54A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>SN</t>
   </si>
@@ -72,13 +83,31 @@
     <t>PV</t>
   </si>
   <si>
-    <t>TL</t>
-  </si>
-  <si>
     <t>Bitcoin</t>
   </si>
   <si>
-    <t>blah blah blah</t>
+    <t>TL=((FA+MC+BI+SC+PU)/5)</t>
+  </si>
+  <si>
+    <t>TA=(TS+TV)/2</t>
+  </si>
+  <si>
+    <t>FA=-TA</t>
+  </si>
+  <si>
+    <t>CA=(RE+SE)/2</t>
+  </si>
+  <si>
+    <t>MC=-CA</t>
+  </si>
+  <si>
+    <t>BI=(PE+EE+SI)/3</t>
+  </si>
+  <si>
+    <t>PU=(Im+PV+JR+Ex+SI)/5</t>
+  </si>
+  <si>
+    <t>htyu7yuyuj</t>
   </si>
 </sst>
 </file>
@@ -396,18 +425,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:V259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="16" max="16" width="25.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,18 +488,36 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -474,233 +526,4691 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N2">
-        <v>2</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <f>(D2+D3)/2</f>
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <f>(F2+G2)/2</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <f>(J2+I2+N2)/3</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="V2">
+        <f>(M2+O2+L2+N2)/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="L3">
-        <v>10</v>
-      </c>
-      <c r="M3">
-        <v>10</v>
-      </c>
-      <c r="O3">
-        <v>10</v>
-      </c>
-      <c r="P3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="0">(D3+D4)/2</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S66" si="1">(F3+G3)/2</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="2">(J3+I3+N3)/3</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V66" si="3">(M3+O3+L3+N3)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
-      <c r="M4">
-        <v>8</v>
-      </c>
-      <c r="N4">
-        <v>6</v>
-      </c>
-      <c r="O4">
-        <v>6</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="L5">
-        <v>6</v>
-      </c>
-      <c r="M5">
-        <v>6</v>
-      </c>
-      <c r="N5">
-        <v>6</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="M6">
-        <v>8</v>
-      </c>
-      <c r="O6">
-        <v>6</v>
-      </c>
-      <c r="P6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="L7">
-        <v>10</v>
-      </c>
-      <c r="M7">
-        <v>10</v>
-      </c>
-      <c r="P7">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q130" si="4">(D67+D68)/2</f>
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <f t="shared" ref="S67:S130" si="5">(F67+G67)/2</f>
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <f t="shared" ref="U67:U130" si="6">(J67+I67+N67)/3</f>
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <f t="shared" ref="V67:V130" si="7">(M67+O67+L67+N67)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q73">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q79">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q82">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q88">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q89">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q96">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q100">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q102">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q103">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q105">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q110">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q111">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q112">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q114">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q115">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q116">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q118">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q120">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q121">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q122">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V124">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q125">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S125">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V125">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q126">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V126">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q127">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V127">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q128">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S128">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V128">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q129">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S129">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V129">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q130">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S130">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V130">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q131">
+        <f t="shared" ref="Q131:Q194" si="8">(D131+D132)/2</f>
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <f t="shared" ref="S131:S194" si="9">(F131+G131)/2</f>
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <f t="shared" ref="U131:U194" si="10">(J131+I131+N131)/3</f>
+        <v>0</v>
+      </c>
+      <c r="V131">
+        <f t="shared" ref="V131:V194" si="11">(M131+O131+L131+N131)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q132">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q133">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S133">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U133">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V133">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q134">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S134">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V134">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S135">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V135">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q136">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S136">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U136">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V136">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S137">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V137">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q138">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S138">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q139">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S139">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V139">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q140">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S140">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U140">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V140">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q141">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V141">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q142">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S142">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V142">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q143">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S143">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U143">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V143">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q144">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V144">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q145">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S145">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V145">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q146">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V146">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q147">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S147">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V147">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q148">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S148">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V148">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q149">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S149">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V149">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q150">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q151">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S151">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U151">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V151">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q152">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S152">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U152">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V152">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q153">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S153">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U153">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V153">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q154">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S154">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U154">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V154">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q155">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S155">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U155">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q156">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S156">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U156">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V156">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q157">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U157">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V157">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q158">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S158">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U158">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V158">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q159">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S159">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U159">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V159">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q160">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S160">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U160">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V160">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q161">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S161">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U161">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V161">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q162">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S162">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U162">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V162">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q163">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S163">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U163">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V163">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q164">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S164">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U164">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V164">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q165">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S165">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U165">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V165">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q166">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S166">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U166">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V166">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q167">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S167">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U167">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V167">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q168">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S168">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U168">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V168">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q169">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S169">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U169">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V169">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q170">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S170">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U170">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V170">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q171">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S171">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U171">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V171">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q172">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S172">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U172">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V172">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q173">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S173">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U173">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V173">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q174">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S174">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U174">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V174">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q175">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S175">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U175">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V175">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q176">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S176">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U176">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V176">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q177">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U177">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V177">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q178">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S178">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U178">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V178">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q179">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S179">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U179">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V179">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q180">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S180">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U180">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V180">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q181">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S181">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U181">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V181">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q182">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S182">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U182">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V182">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q183">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S183">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U183">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V183">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q184">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S184">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U184">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V184">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q185">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S185">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U185">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V185">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q186">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S186">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U186">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V186">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q187">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S187">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U187">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V187">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q188">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S188">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U188">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V188">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q189">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S189">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U189">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V189">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q190">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S190">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U190">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q191">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S191">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U191">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V191">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q192">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S192">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U192">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V192">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q193">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S193">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U193">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V193">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q194">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S194">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U194">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V194">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q195">
+        <f t="shared" ref="Q195:Q258" si="12">(D195+D196)/2</f>
+        <v>0</v>
+      </c>
+      <c r="S195">
+        <f t="shared" ref="S195:S258" si="13">(F195+G195)/2</f>
+        <v>0</v>
+      </c>
+      <c r="U195">
+        <f t="shared" ref="U195:U258" si="14">(J195+I195+N195)/3</f>
+        <v>0</v>
+      </c>
+      <c r="V195">
+        <f t="shared" ref="V195:V258" si="15">(M195+O195+L195+N195)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q196">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S196">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U196">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V196">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q197">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S197">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U197">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V197">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q198">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S198">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U198">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V198">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q199">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S199">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U199">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V199">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q200">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S200">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U200">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V200">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q201">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S201">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U201">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V201">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q202">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S202">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U202">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V202">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q203">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S203">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U203">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V203">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q204">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U204">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V204">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q205">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S205">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U205">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V205">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q206">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S206">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U206">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V206">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q207">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S207">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U207">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V207">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q208">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S208">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U208">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V208">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q209">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S209">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U209">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V209">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q210">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S210">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U210">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V210">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q211">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S211">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U211">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V211">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q212">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S212">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U212">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V212">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q213">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S213">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U213">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V213">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q214">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S214">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U214">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V214">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q215">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S215">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U215">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V215">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q216">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S216">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U216">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V216">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q217">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S217">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U217">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V217">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q218">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S218">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U218">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V218">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q219">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S219">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U219">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V219">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q220">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S220">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U220">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V220">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q221">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S221">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U221">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V221">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q222">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q223">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q224">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q225">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q226">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q227">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q228">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q229">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q230">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q231">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q232">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q233">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q234">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S234">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U234">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V234">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q235">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S235">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U235">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V235">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q236">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S236">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U236">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V236">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q237">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S237">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U237">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V237">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q238">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S238">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U238">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V238">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q239">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S239">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U239">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V239">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q240">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S240">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U240">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V240">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q241">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S241">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U241">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V241">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q242">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S242">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U242">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V242">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q243">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S243">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U243">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V243">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q244">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S244">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U244">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V244">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q245">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S245">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U245">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V245">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q246">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S246">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U246">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V246">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q247">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S247">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U247">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V247">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q248">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S248">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U248">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V248">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q249">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S249">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U249">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V249">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q250">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S250">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U250">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V250">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q251">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S251">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U251">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V251">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q252">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S252">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U252">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V252">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q253">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S253">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U253">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V253">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q254">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S254">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U254">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V254">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q255">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S255">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U255">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V255">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q256">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S256">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U256">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V256">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q257">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S257">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U257">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V257">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q258">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S258">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U258">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V258">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q259">
+        <f>(D259+D260)/2</f>
+        <v>0</v>
+      </c>
+      <c r="S259">
+        <f>(F259+G259)/2</f>
+        <v>0</v>
+      </c>
+      <c r="U259">
+        <f>(J259+I259+N259)/3</f>
+        <v>0</v>
+      </c>
+      <c r="V259">
+        <f>(M259+O259+L259+N259)/4</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
